--- a/Nominal Values 1.xlsx
+++ b/Nominal Values 1.xlsx
@@ -420,7 +420,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -456,28 +456,28 @@
         <v>8</v>
       </c>
       <c r="B2">
-        <v>200</v>
+        <v>935</v>
       </c>
       <c r="C2">
-        <v>1400</v>
+        <v>880</v>
       </c>
       <c r="D2">
-        <v>400</v>
+        <v>930</v>
       </c>
       <c r="E2">
-        <v>400</v>
+        <v>980</v>
       </c>
       <c r="F2">
-        <v>400</v>
+        <v>980</v>
       </c>
       <c r="G2">
-        <v>400</v>
+        <v>130</v>
       </c>
       <c r="H2">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>4450</v>
+        <v>774</v>
       </c>
     </row>
   </sheetData>
